--- a/data/LengthInWords.xlsx
+++ b/data/LengthInWords.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">E120_K1_001</t>
   </si>
   <si>
-    <t xml:space="preserve">E-Mail/pupil</t>
+    <t xml:space="preserve">CasualA</t>
   </si>
   <si>
     <t xml:space="preserve">that</t>
@@ -245,7 +245,7 @@
     <t xml:space="preserve">E120_K2_087</t>
   </si>
   <si>
-    <t xml:space="preserve">Exam task</t>
+    <t xml:space="preserve">FormalC</t>
   </si>
   <si>
     <t xml:space="preserve">E120_K2_045</t>
@@ -257,10 +257,10 @@
     <t xml:space="preserve">E120_K1_025</t>
   </si>
   <si>
-    <t xml:space="preserve">E-Mail/L2 student</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tutorial task</t>
+    <t xml:space="preserve">CasualB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FormaldD</t>
   </si>
 </sst>
 </file>
